--- a/results/mp/logistic/corona/confidence/168/desired-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/desired-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,46 +43,49 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>panic</t>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>no</t>
+    <t>stop</t>
   </si>
   <si>
     <t>negative</t>
@@ -100,112 +103,121 @@
     <t>happy</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>better</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>helping</t>
+    <t>you</t>
   </si>
 </sst>
 </file>
@@ -563,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,10 +583,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -632,13 +644,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8527397260273972</v>
+        <v>0.8253424657534246</v>
       </c>
       <c r="C3">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D3">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -650,10 +662,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -682,13 +694,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8421052631578947</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -703,7 +715,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K4">
         <v>0.9696969696969697</v>
@@ -732,13 +744,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8378378378378378</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -750,19 +762,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="L5">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -774,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -782,13 +794,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8333333333333334</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -800,10 +812,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K6">
         <v>0.9230769230769231</v>
@@ -832,13 +844,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7941176470588235</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -853,16 +865,16 @@
         <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K7">
-        <v>0.9166666666666666</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L7">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="M7">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -874,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -882,13 +894,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7777777777777778</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -903,16 +915,16 @@
         <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K8">
-        <v>0.9164490861618799</v>
+        <v>0.9138381201044387</v>
       </c>
       <c r="L8">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M8">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -924,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -932,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.76</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -950,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K9">
-        <v>0.9152542372881356</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="M9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -974,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -982,13 +994,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7307692307692307</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1000,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K10">
-        <v>0.8936170212765957</v>
+        <v>0.90625</v>
       </c>
       <c r="L10">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="M10">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1024,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1032,13 +1044,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6896551724137931</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1050,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K11">
-        <v>0.8928571428571429</v>
+        <v>0.8943661971830986</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="M11">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1074,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1082,13 +1094,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="C12">
-        <v>108</v>
+        <v>258</v>
       </c>
       <c r="D12">
-        <v>108</v>
+        <v>258</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1100,19 +1112,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>81</v>
+        <v>258</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K12">
-        <v>0.890625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L12">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1124,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1132,13 +1144,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4901960784313725</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1150,19 +1162,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K13">
-        <v>0.8867924528301887</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L13">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="M13">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1174,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1182,13 +1194,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4745762711864407</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1200,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K14">
         <v>0.8837209302325582</v>
@@ -1232,13 +1244,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4515503875968992</v>
+        <v>0.32</v>
       </c>
       <c r="C15">
-        <v>233</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>233</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1250,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>283</v>
+        <v>51</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K15">
-        <v>0.8802816901408451</v>
+        <v>0.875</v>
       </c>
       <c r="L15">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="M15">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1274,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1282,13 +1294,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2348993288590604</v>
+        <v>0.1972222222222222</v>
       </c>
       <c r="C16">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="D16">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1300,19 +1312,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>114</v>
+        <v>289</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K16">
-        <v>0.8658536585365854</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L16">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="M16">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1324,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1332,13 +1344,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1138888888888889</v>
+        <v>0.1342281879194631</v>
       </c>
       <c r="C17">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1350,19 +1362,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>319</v>
+        <v>129</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K17">
-        <v>0.8636363636363636</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="M17">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1374,21 +1386,45 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.09126984126984126</v>
+      </c>
+      <c r="C18">
+        <v>23</v>
+      </c>
+      <c r="D18">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>229</v>
+      </c>
       <c r="J18" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K18">
-        <v>0.8625</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L18">
-        <v>138</v>
+        <v>71</v>
       </c>
       <c r="M18">
-        <v>138</v>
+        <v>71</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1400,12 +1436,12 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="J19" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K19">
         <v>0.8620689655172413</v>
@@ -1431,7 +1467,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K20">
         <v>0.8611111111111112</v>
@@ -1457,16 +1493,16 @@
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>0.8125</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L21">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1478,21 +1514,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K22">
-        <v>0.8</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L22">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="M22">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1504,21 +1540,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K23">
-        <v>0.7948717948717948</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1530,21 +1566,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K24">
-        <v>0.7857142857142857</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L24">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1556,21 +1592,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K25">
-        <v>0.7777777777777778</v>
+        <v>0.78</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="M25">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1582,21 +1618,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K26">
-        <v>0.7777777777777778</v>
+        <v>0.7441176470588236</v>
       </c>
       <c r="L26">
-        <v>49</v>
+        <v>253</v>
       </c>
       <c r="M26">
-        <v>49</v>
+        <v>253</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1608,21 +1644,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27">
-        <v>0.75</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M27">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1634,21 +1670,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28">
-        <v>0.7382352941176471</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L28">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="M28">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1660,21 +1696,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>89</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K29">
-        <v>0.7142857142857143</v>
+        <v>0.7244897959183674</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>213</v>
       </c>
       <c r="M29">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1683,24 +1719,24 @@
         <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K30">
-        <v>0.6949152542372882</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L30">
-        <v>205</v>
+        <v>20</v>
       </c>
       <c r="M30">
-        <v>205</v>
+        <v>20</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1712,21 +1748,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>90</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K31">
-        <v>0.6914893617021277</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L31">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1738,21 +1774,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K32">
-        <v>0.6857142857142857</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L32">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M32">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1764,21 +1800,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K33">
-        <v>0.6853932584269663</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L33">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M33">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1790,21 +1826,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K34">
-        <v>0.6694560669456067</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L34">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1816,21 +1852,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>79</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K35">
-        <v>0.6363636363636364</v>
+        <v>0.6778242677824268</v>
       </c>
       <c r="L35">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="M35">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1842,21 +1878,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K36">
-        <v>0.6153846153846154</v>
+        <v>0.675</v>
       </c>
       <c r="L36">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M36">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1868,21 +1904,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K37">
-        <v>0.6</v>
+        <v>0.6714285714285714</v>
       </c>
       <c r="L37">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M37">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1894,47 +1930,47 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K38">
-        <v>0.5476190476190477</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L38">
+        <v>42</v>
+      </c>
+      <c r="M38">
+        <v>42</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <v>23</v>
-      </c>
-      <c r="M38">
-        <v>23</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>19</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K39">
-        <v>0.5294117647058824</v>
+        <v>0.6292134831460674</v>
       </c>
       <c r="L39">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="M39">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1946,21 +1982,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K40">
-        <v>0.410958904109589</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L40">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M40">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1972,21 +2008,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K41">
-        <v>0.3846153846153846</v>
+        <v>0.5205479452054794</v>
       </c>
       <c r="L41">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M41">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1998,21 +2034,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K42">
-        <v>0.3220338983050847</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L42">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M42">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2024,7 +2060,85 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>40</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K43">
+        <v>0.4358974358974359</v>
+      </c>
+      <c r="L43">
+        <v>34</v>
+      </c>
+      <c r="M43">
+        <v>34</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K44">
+        <v>0.392156862745098</v>
+      </c>
+      <c r="L44">
+        <v>20</v>
+      </c>
+      <c r="M44">
+        <v>20</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K45">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="L45">
+        <v>25</v>
+      </c>
+      <c r="M45">
+        <v>25</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>1175</v>
       </c>
     </row>
   </sheetData>
